--- a/AAII_Financials/Quarterly/CMTG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMTG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
   <si>
     <t>CMTG</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,41 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,26 +709,32 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>113300</v>
+      </c>
+      <c r="F8" s="3">
         <v>112400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>105200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>106000</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -737,8 +744,14 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -749,14 +762,14 @@
         <v>10000</v>
       </c>
       <c r="F9" s="3">
+        <v>9800</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H9" s="3">
         <v>11000</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -766,26 +779,32 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>103300</v>
+      </c>
+      <c r="F10" s="3">
         <v>102600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>95200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>95000</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,8 +814,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,8 +833,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -837,8 +864,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,8 +899,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -895,8 +934,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,8 +969,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,26 +985,28 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>90100</v>
+      </c>
+      <c r="F17" s="3">
         <v>11500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>62300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>14600</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,26 +1016,32 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>23200</v>
+      </c>
+      <c r="F18" s="3">
         <v>100900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>42900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>91400</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,8 +1051,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,26 +1070,28 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1034,8 +1101,14 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1051,8 +1124,8 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+      <c r="H21" s="3">
+        <v>91200</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1063,26 +1136,32 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
         <v>48100</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
         <v>39700</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,26 +1171,32 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F23" s="3">
         <v>52800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>42400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>51400</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,8 +1206,14 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1130,28 +1221,34 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,26 +1276,32 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F26" s="3">
         <v>52800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>42400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>51400</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1208,26 +1311,32 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F27" s="3">
         <v>52900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>43200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>50000</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1346,14 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1381,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1416,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1451,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,26 +1486,32 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1382,26 +1521,32 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F33" s="3">
         <v>52900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>43200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>50000</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1556,14 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,26 +1591,32 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F35" s="3">
         <v>52900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>43200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>50000</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,31 +1626,37 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1666,14 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1685,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,20 +1700,22 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>444000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>310200</v>
+      </c>
+      <c r="F41" s="3">
         <v>235600</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,8 +1731,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,20 +1766,26 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3">
         <v>30300</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1616,8 +1801,14 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1645,8 +1836,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1674,8 +1871,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1703,20 +1906,26 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7135900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>6502100</v>
+      </c>
+      <c r="F47" s="3">
         <v>6614000</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1732,8 +1941,14 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1761,8 +1976,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1790,8 +2011,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +2046,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,20 +2081,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F52" s="3">
         <v>42600</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,8 +2116,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,20 +2151,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8072800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7455300</v>
+      </c>
+      <c r="F54" s="3">
         <v>7352300</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2186,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2205,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,20 +2220,22 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3">
         <v>32700</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1990,20 +2251,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4902400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4277300</v>
+      </c>
+      <c r="F58" s="3">
         <v>3885500</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,20 +2286,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>133400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>116200</v>
+      </c>
+      <c r="F59" s="3">
         <v>76400</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,8 +2321,14 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2077,20 +2356,26 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>457700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>457600</v>
+      </c>
+      <c r="F61" s="3">
         <v>814300</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2106,8 +2391,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2135,8 +2426,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2461,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2496,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,20 +2531,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5531700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4888600</v>
+      </c>
+      <c r="F66" s="3">
         <v>4983300</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2566,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2585,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2616,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,20 +2651,26 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>100</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -2351,8 +2686,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,20 +2721,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>694100</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="3">
         <v>597300</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2409,8 +2756,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2791,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2826,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,20 +2861,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2541200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2566600</v>
+      </c>
+      <c r="F76" s="3">
         <v>2368800</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,8 +2896,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,31 +2931,37 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,26 +2971,32 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F81" s="3">
         <v>52900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>43200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>50000</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +3006,14 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,37 +3025,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>1900</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +3091,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +3126,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +3161,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +3196,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,22 +3231,28 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3">
-        <v>44700</v>
+      <c r="D89" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+      <c r="G89" s="3">
+        <v>140500</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2833,8 +3266,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,8 +3285,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2875,8 +3316,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3351,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,22 +3386,28 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3">
-        <v>18100</v>
+      <c r="D94" s="3">
+        <v>-456600</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>-208900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2962,8 +3421,14 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3440,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3471,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3506,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3541,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,22 +3576,28 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
-        <v>60000</v>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>161300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3120,8 +3611,14 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3149,22 +3646,28 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="3">
-        <v>122700</v>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+      <c r="G102" s="3">
+        <v>93000</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3176,6 +3679,12 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMTG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMTG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
   <si>
     <t>CMTG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,47 +665,51 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="I7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -715,32 +719,35 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>146200</v>
       </c>
       <c r="E8" s="3">
+        <v>97500</v>
+      </c>
+      <c r="F8" s="3">
         <v>113300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>112400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>110700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>106900</v>
+      </c>
+      <c r="J8" s="3">
         <v>105200</v>
       </c>
-      <c r="H8" s="3">
-        <v>106000</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -750,8 +757,11 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -759,23 +769,23 @@
         <v>9800</v>
       </c>
       <c r="E9" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F9" s="3">
         <v>10000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>9700</v>
+      </c>
+      <c r="I9" s="3">
+        <v>9600</v>
+      </c>
+      <c r="J9" s="3">
         <v>10000</v>
       </c>
-      <c r="H9" s="3">
-        <v>11000</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -785,32 +795,35 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>136400</v>
       </c>
       <c r="E10" s="3">
+        <v>87700</v>
+      </c>
+      <c r="F10" s="3">
         <v>103300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>102600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>101000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>97300</v>
+      </c>
+      <c r="J10" s="3">
         <v>95200</v>
       </c>
-      <c r="H10" s="3">
-        <v>95000</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -820,8 +833,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -835,8 +851,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -905,8 +925,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -940,31 +963,34 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
+        <v>1900</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>1300</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -975,8 +1001,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -987,32 +1016,33 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>26500</v>
+        <v>36300</v>
       </c>
       <c r="E17" s="3">
-        <v>90100</v>
+        <v>26000</v>
       </c>
       <c r="F17" s="3">
+        <v>45100</v>
+      </c>
+      <c r="G17" s="3">
         <v>11500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>13700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J17" s="3">
         <v>62300</v>
       </c>
-      <c r="H17" s="3">
-        <v>14600</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1022,32 +1052,35 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>109900</v>
       </c>
       <c r="E18" s="3">
-        <v>23200</v>
+        <v>71500</v>
       </c>
       <c r="F18" s="3">
+        <v>68200</v>
+      </c>
+      <c r="G18" s="3">
         <v>100900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>97000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>100800</v>
+      </c>
+      <c r="J18" s="3">
         <v>42900</v>
       </c>
-      <c r="H18" s="3">
-        <v>91400</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1057,8 +1090,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1072,32 +1108,33 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>2800</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,25 +1144,28 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>114800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>73500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>70000</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
-        <v>91200</v>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1142,28 +1182,31 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>42200</v>
       </c>
       <c r="F22" s="3">
+        <v>45000</v>
+      </c>
+      <c r="G22" s="3">
         <v>48100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3">
-        <v>39700</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+        <v>56800</v>
+      </c>
+      <c r="I22" s="3">
+        <v>47800</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1177,32 +1220,35 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>63200</v>
       </c>
       <c r="E23" s="3">
+        <v>29400</v>
+      </c>
+      <c r="F23" s="3">
         <v>23000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>52800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>40100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>54400</v>
+      </c>
+      <c r="J23" s="3">
         <v>42400</v>
       </c>
-      <c r="H23" s="3">
-        <v>51400</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1212,8 +1258,11 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1221,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>6000</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+        <v>-1800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-4200</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1247,8 +1296,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1282,32 +1334,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>63200</v>
       </c>
       <c r="E26" s="3">
+        <v>29400</v>
+      </c>
+      <c r="F26" s="3">
         <v>17000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>52800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>42000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>58600</v>
+      </c>
+      <c r="J26" s="3">
         <v>42400</v>
       </c>
-      <c r="H26" s="3">
-        <v>51400</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1317,32 +1372,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>63200</v>
       </c>
       <c r="E27" s="3">
+        <v>29400</v>
+      </c>
+      <c r="F27" s="3">
         <v>17000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>52900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>42000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>58600</v>
+      </c>
+      <c r="J27" s="3">
         <v>43200</v>
       </c>
-      <c r="H27" s="3">
-        <v>50000</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,8 +1410,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1387,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1422,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1457,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1492,32 +1562,35 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-2800</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
-        <v>200</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1527,32 +1600,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>63200</v>
       </c>
       <c r="E33" s="3">
+        <v>29400</v>
+      </c>
+      <c r="F33" s="3">
         <v>17000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>52900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>42000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>58600</v>
+      </c>
+      <c r="J33" s="3">
         <v>43200</v>
       </c>
-      <c r="H33" s="3">
-        <v>50000</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1562,8 +1638,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1597,32 +1676,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>63200</v>
       </c>
       <c r="E35" s="3">
+        <v>29400</v>
+      </c>
+      <c r="F35" s="3">
         <v>17000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>52900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>42000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>58600</v>
+      </c>
+      <c r="J35" s="3">
         <v>43200</v>
       </c>
-      <c r="H35" s="3">
-        <v>50000</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1632,37 +1714,40 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="I38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1672,8 +1757,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1687,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1702,23 +1791,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>461000</v>
+      </c>
+      <c r="E41" s="3">
         <v>444000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>310200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>235600</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1737,8 +1827,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1772,8 +1865,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1784,11 +1880,11 @@
         <v>3</v>
       </c>
       <c r="F43" s="3">
+        <v>26000</v>
+      </c>
+      <c r="G43" s="3">
         <v>30300</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1807,8 +1903,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1842,8 +1941,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1877,8 +1979,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1912,23 +2017,26 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7052400</v>
+      </c>
+      <c r="E47" s="3">
         <v>7135900</v>
       </c>
-      <c r="E47" s="3">
-        <v>6502100</v>
-      </c>
       <c r="F47" s="3">
+        <v>6656700</v>
+      </c>
+      <c r="G47" s="3">
         <v>6614000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1947,8 +2055,11 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1982,8 +2093,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2017,8 +2131,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2052,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2087,23 +2207,26 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E52" s="3">
         <v>23100</v>
       </c>
-      <c r="E52" s="3">
-        <v>23900</v>
-      </c>
       <c r="F52" s="3">
+        <v>43500</v>
+      </c>
+      <c r="G52" s="3">
         <v>42600</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2122,8 +2245,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2157,23 +2283,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8016200</v>
+      </c>
+      <c r="E54" s="3">
         <v>8072800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7455300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7352300</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2207,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2222,8 +2355,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2234,11 +2368,11 @@
         <v>3</v>
       </c>
       <c r="F57" s="3">
+        <v>46200</v>
+      </c>
+      <c r="G57" s="3">
         <v>32700</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2257,23 +2391,26 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4755000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4902400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4277300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3885500</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2292,23 +2429,26 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>107500</v>
+      </c>
+      <c r="E59" s="3">
         <v>133400</v>
       </c>
-      <c r="E59" s="3">
-        <v>116200</v>
-      </c>
       <c r="F59" s="3">
+        <v>70000</v>
+      </c>
+      <c r="G59" s="3">
         <v>76400</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2327,8 +2467,11 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2362,23 +2505,26 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>563300</v>
+      </c>
+      <c r="E61" s="3">
         <v>457700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>457600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>814300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2397,8 +2543,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2432,8 +2581,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2467,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2502,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2537,23 +2695,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5464300</v>
+      </c>
+      <c r="E66" s="3">
         <v>5531700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4888600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4983300</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2572,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2587,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2622,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2657,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2669,11 +2840,11 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>100</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2692,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2727,23 +2901,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>757300</v>
+      </c>
+      <c r="E72" s="3">
         <v>694100</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F72" s="3">
+        <v>664700</v>
+      </c>
+      <c r="G72" s="3">
         <v>597300</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2762,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2797,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2832,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2867,23 +3053,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2552000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2541200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2566600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2368800</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2902,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2937,37 +3129,40 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="I80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
-        <v>44104</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2977,32 +3172,35 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>63200</v>
       </c>
       <c r="E81" s="3">
+        <v>29400</v>
+      </c>
+      <c r="F81" s="3">
         <v>17000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>52900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>42000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>58600</v>
+      </c>
+      <c r="J81" s="3">
         <v>43200</v>
       </c>
-      <c r="H81" s="3">
-        <v>50000</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3012,8 +3210,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3027,19 +3228,20 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1900</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3">
+        <v>1900</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -3053,8 +3255,8 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3062,8 +3264,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3097,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3132,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3167,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3202,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3237,32 +3454,35 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E89" s="3">
         <v>22600</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="F89" s="3">
+        <v>69000</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3">
         <v>140500</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3272,8 +3492,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3287,8 +3510,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3322,8 +3546,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3357,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3392,32 +3622,35 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>84100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-456600</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="F94" s="3">
+        <v>-70700</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3">
         <v>-208900</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3427,8 +3660,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3442,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3466,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-12400</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3477,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3512,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3547,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3582,32 +3828,35 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="D100" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>567000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>76000</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
         <v>161300</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3617,8 +3866,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3652,32 +3904,35 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="D102" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>133000</v>
+      </c>
+      <c r="F102" s="3">
+        <v>74300</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3">
         <v>93000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3685,6 +3940,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMTG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMTG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
   <si>
     <t>CMTG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,55 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -722,35 +723,38 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>144400</v>
+      </c>
+      <c r="E8" s="3">
         <v>146200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>97500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>113300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>112400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>110700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>106900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>105200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -760,35 +764,38 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="E9" s="3">
         <v>9800</v>
       </c>
       <c r="F9" s="3">
+        <v>9800</v>
+      </c>
+      <c r="G9" s="3">
         <v>10000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,35 +805,38 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>134500</v>
+      </c>
+      <c r="E10" s="3">
         <v>136400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>87700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>103300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>102600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>101000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>97300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>95200</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +865,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,8 +945,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -966,34 +986,37 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E15" s="3">
         <v>2000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1900</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
         <v>1300</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1004,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,35 +1043,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E17" s="3">
         <v>36300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>45100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>62300</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1055,35 +1082,38 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>110400</v>
+      </c>
+      <c r="E18" s="3">
         <v>109900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>71500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>68200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>100900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>97000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>100800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>42900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,8 +1123,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,35 +1142,36 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E20" s="3">
         <v>2800</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1147,23 +1181,26 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>116200</v>
+      </c>
+      <c r="E21" s="3">
         <v>114800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>73500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>70000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1185,32 +1222,35 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>71900</v>
+      </c>
+      <c r="E22" s="3">
         <v>49600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>42200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>45000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>48100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>56800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>47800</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,35 +1263,38 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E23" s="3">
         <v>63200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>29400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>23000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>52800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>40100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>54400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>42400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,8 +1304,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1273,25 +1319,25 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>6000</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-1800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4200</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1299,8 +1345,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,35 +1386,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E26" s="3">
         <v>63200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>29400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>17000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>52800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>42000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>58600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>42400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1375,35 +1427,38 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>63200</v>
+        <v>41300</v>
       </c>
       <c r="E27" s="3">
+        <v>62400</v>
+      </c>
+      <c r="F27" s="3">
         <v>29400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>17000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>52900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>42000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>58600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>43200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1468,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,35 +1632,38 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2800</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1603,35 +1673,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>63200</v>
+        <v>41300</v>
       </c>
       <c r="E33" s="3">
+        <v>62400</v>
+      </c>
+      <c r="F33" s="3">
         <v>29400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>17000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>52900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>42000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>58600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>43200</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1641,8 +1714,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,35 +1755,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>63200</v>
+        <v>41300</v>
       </c>
       <c r="E35" s="3">
+        <v>62400</v>
+      </c>
+      <c r="F35" s="3">
         <v>29400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>17000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>52900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>42000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>58600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>43200</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,40 +1796,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1760,8 +1842,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,26 +1878,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>225600</v>
+      </c>
+      <c r="E41" s="3">
         <v>461000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>444000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>310200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>235600</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,8 +1917,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,8 +1958,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1879,15 +1972,15 @@
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3">
         <v>26000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>30300</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,8 +1999,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,8 +2040,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1982,8 +2081,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2020,26 +2122,29 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7318600</v>
+      </c>
+      <c r="E47" s="3">
         <v>7052400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7135900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6656700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6614000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2058,8 +2163,11 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2096,8 +2204,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,26 +2327,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E52" s="3">
         <v>36700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>23100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>43500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>42600</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,26 +2409,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8057900</v>
+      </c>
+      <c r="E54" s="3">
         <v>8016200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8072800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7455300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7352300</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,8 +2486,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2367,15 +2498,15 @@
       <c r="E57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3">
         <v>46200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>32700</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,26 +2525,29 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4855100</v>
+      </c>
+      <c r="E58" s="3">
         <v>4755000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4902400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4277300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3885500</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2432,26 +2566,29 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>114700</v>
+      </c>
+      <c r="E59" s="3">
         <v>107500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>133400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>70000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>76400</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,8 +2607,11 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2508,26 +2648,29 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>552900</v>
+      </c>
+      <c r="E61" s="3">
         <v>563300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>457700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>457600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>814300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2546,8 +2689,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,26 +2853,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5522700</v>
+      </c>
+      <c r="E66" s="3">
         <v>5464300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5531700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4888600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4983300</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2843,11 +3011,11 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>100</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,26 +3075,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>799400</v>
+      </c>
+      <c r="E72" s="3">
         <v>757300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>694100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>664700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>597300</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,26 +3239,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2535200</v>
+      </c>
+      <c r="E76" s="3">
         <v>2552000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2541200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2566600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2368800</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,40 +3321,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3175,35 +3367,38 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>63200</v>
+        <v>41300</v>
       </c>
       <c r="E81" s="3">
+        <v>62400</v>
+      </c>
+      <c r="F81" s="3">
         <v>29400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>17000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>52900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>42000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>58600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>43200</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3213,8 +3408,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,22 +3427,23 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E83" s="3">
         <v>2000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1900</v>
       </c>
       <c r="F83" s="3">
         <v>1900</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>1900</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3258,8 +3457,8 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3267,8 +3466,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,35 +3671,38 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E89" s="3">
         <v>49500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>22600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>69000</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>140500</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3495,8 +3712,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,31 +3731,32 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3549,8 +3770,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,35 +3852,38 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-278400</v>
+      </c>
+      <c r="E94" s="3">
         <v>84100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-456600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-70700</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
         <v>-208900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,8 +3893,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3703,11 +3937,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-12400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,35 +4074,38 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-103000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>567000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>76000</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>161300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,8 +4115,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,35 +4156,38 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-235100</v>
+      </c>
+      <c r="E102" s="3">
         <v>30600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>133000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>74300</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
         <v>93000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3943,6 +4195,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMTG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMTG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
   <si>
     <t>CMTG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,58 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -726,38 +726,41 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>176100</v>
+      </c>
+      <c r="E8" s="3">
         <v>144400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>146200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>97500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>113300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>112400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>110700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>106900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>105200</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -767,8 +770,11 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -776,29 +782,29 @@
         <v>9900</v>
       </c>
       <c r="E9" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="F9" s="3">
         <v>9800</v>
       </c>
       <c r="G9" s="3">
+        <v>9800</v>
+      </c>
+      <c r="H9" s="3">
         <v>10000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10000</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -808,38 +814,41 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>166200</v>
+      </c>
+      <c r="E10" s="3">
         <v>134500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>136400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>87700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>103300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>102600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>101000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>97300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>95200</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -849,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,8 +878,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,8 +920,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +964,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -989,37 +1008,40 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E15" s="3">
         <v>2100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1900</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
         <v>1300</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1030,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,38 +1069,39 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>103800</v>
+      </c>
+      <c r="E17" s="3">
         <v>34000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>36300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>45100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>62300</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1085,38 +1111,41 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>72300</v>
+      </c>
+      <c r="E18" s="3">
         <v>110400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>109900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>71500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>68200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>100900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>97000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>42900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1126,8 +1155,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,38 +1175,39 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3700</v>
+        <v>-3200</v>
       </c>
       <c r="E20" s="3">
-        <v>2800</v>
+        <v>-1300</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>-4600</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-5200</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-5300</v>
       </c>
       <c r="J20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,25 +1217,28 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>116200</v>
+        <v>71200</v>
       </c>
       <c r="E21" s="3">
-        <v>114800</v>
+        <v>111200</v>
       </c>
       <c r="F21" s="3">
-        <v>73500</v>
+        <v>109900</v>
       </c>
       <c r="G21" s="3">
-        <v>70000</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>68900</v>
+      </c>
+      <c r="H21" s="3">
+        <v>65000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1225,35 +1261,38 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>71900</v>
+        <v>91800</v>
       </c>
       <c r="E22" s="3">
-        <v>49600</v>
+        <v>66800</v>
       </c>
       <c r="F22" s="3">
-        <v>42200</v>
+        <v>44700</v>
       </c>
       <c r="G22" s="3">
-        <v>45000</v>
+        <v>37600</v>
       </c>
       <c r="H22" s="3">
-        <v>48100</v>
+        <v>40000</v>
       </c>
       <c r="I22" s="3">
-        <v>56800</v>
+        <v>42800</v>
       </c>
       <c r="J22" s="3">
+        <v>50900</v>
+      </c>
+      <c r="K22" s="3">
         <v>47800</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1266,38 +1305,41 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E23" s="3">
         <v>42200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>63200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>29400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>23000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>52800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>40100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>54400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>42400</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1307,13 +1349,16 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1322,25 +1367,25 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>6000</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4200</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1348,8 +1393,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,38 +1437,41 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E26" s="3">
         <v>42200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>63200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>29400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>17000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>52800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>42000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>58600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>42400</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1430,38 +1481,41 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E27" s="3">
         <v>41300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>62400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>29400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>17000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>52900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>42000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>58600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>43200</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,8 +1525,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,38 +1701,41 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3700</v>
+        <v>3200</v>
       </c>
       <c r="E32" s="3">
-        <v>-2800</v>
+        <v>1300</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>4600</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="J32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,38 +1745,41 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E33" s="3">
         <v>41300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>62400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>29400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>17000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>52900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>42000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>58600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>43200</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,8 +1789,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,38 +1833,41 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E35" s="3">
         <v>41300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>62400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>29400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>17000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>52900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>42000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>58600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>43200</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1799,43 +1877,46 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1845,8 +1926,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,29 +1964,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>306500</v>
+      </c>
+      <c r="E41" s="3">
         <v>225600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>461000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>444000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>310200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>235600</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,8 +2006,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,8 +2050,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1975,15 +2067,15 @@
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3">
         <v>26000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>30300</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,8 +2094,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,8 +2138,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2084,8 +2182,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2125,29 +2226,32 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7402300</v>
+      </c>
+      <c r="E47" s="3">
         <v>7318600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7052400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7135900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6656700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6614000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2166,8 +2270,11 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2207,8 +2314,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2248,8 +2358,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,29 +2446,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E52" s="3">
         <v>37100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>36700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>23100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>43500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>42600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2490,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,29 +2534,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8241500</v>
+      </c>
+      <c r="E54" s="3">
         <v>8057900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8016200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8072800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7455300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7352300</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,8 +2616,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2501,15 +2631,15 @@
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3">
         <v>46200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32700</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,29 +2658,32 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5110800</v>
+      </c>
+      <c r="E58" s="3">
         <v>4855100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4755000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4902400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4277300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3885500</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2569,29 +2702,32 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>121100</v>
+      </c>
+      <c r="E59" s="3">
         <v>114700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>107500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>133400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>70000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>76400</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,8 +2746,11 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2651,29 +2790,32 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>553200</v>
+      </c>
+      <c r="E61" s="3">
         <v>552900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>563300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>457700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>457600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>814300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2692,8 +2834,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2733,8 +2878,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,29 +3010,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5785000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5522700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5464300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5531700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4888600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4983300</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3014,11 +3181,11 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>100</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -3037,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,29 +3248,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-257200</v>
+      </c>
+      <c r="E72" s="3">
         <v>799400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>757300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>694100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>664700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>597300</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,29 +3424,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2456500</v>
+      </c>
+      <c r="E76" s="3">
         <v>2535200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2552000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2541200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2566600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2368800</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,43 +3512,46 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3370,38 +3561,41 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E81" s="3">
         <v>41300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>62400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>29400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>17000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>52900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>42000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>58600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>43200</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3411,8 +3605,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,25 +3625,26 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1900</v>
       </c>
       <c r="G83" s="3">
         <v>1900</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>1900</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3460,8 +3658,8 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3469,8 +3667,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,38 +3887,41 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E89" s="3">
         <v>18900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>49500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>22600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>69000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3">
         <v>140500</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3715,8 +3931,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,17 +3951,18 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3758,8 +3978,8 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3773,8 +3993,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,38 +4081,41 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-122400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-278400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>84100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-456600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-70700</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
         <v>-208900</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3896,8 +4125,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3940,11 +4173,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-12400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -3954,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,38 +4319,41 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>187900</v>
+      </c>
+      <c r="E100" s="3">
         <v>24400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-103000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>567000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>76000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>161300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4118,8 +4363,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,38 +4407,41 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>85500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-235100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>30600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>133000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>74300</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3">
         <v>93000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4198,6 +4449,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMTG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMTG_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,62 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -729,41 +730,44 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>175100</v>
+      </c>
+      <c r="E8" s="3">
         <v>176100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>144400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>146200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>97500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>113300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>112400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>110700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>106900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>105200</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -773,41 +777,44 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>9900</v>
+        <v>11200</v>
       </c>
       <c r="E9" s="3">
         <v>9900</v>
       </c>
       <c r="F9" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="G9" s="3">
         <v>9800</v>
       </c>
       <c r="H9" s="3">
+        <v>9800</v>
+      </c>
+      <c r="I9" s="3">
         <v>10000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -817,41 +824,44 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>163900</v>
+      </c>
+      <c r="E10" s="3">
         <v>166200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>134500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>136400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>87700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>103300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>102600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>101000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>97300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>95200</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -861,8 +871,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,8 +892,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -923,8 +937,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,8 +984,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1011,40 +1031,43 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E15" s="3">
         <v>2000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1900</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
         <v>1300</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1055,8 +1078,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,41 +1096,42 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E17" s="3">
         <v>103800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>34000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>36300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>45100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>62300</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1114,41 +1141,44 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>146800</v>
+      </c>
+      <c r="E18" s="3">
         <v>72300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>110400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>109900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>71500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>68200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>100900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>97000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>42900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1158,8 +1188,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,41 +1209,42 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1220,29 +1254,32 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>144400</v>
+      </c>
+      <c r="E21" s="3">
         <v>71200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>111200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>109900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>68900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>65000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,38 +1301,41 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>105600</v>
+      </c>
+      <c r="E22" s="3">
         <v>91800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>66800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>44700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>37600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>40000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>42800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>50900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>47800</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1308,41 +1348,44 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-22700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>42200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>63200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>29400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>23000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>52800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>40100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>54400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>42400</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,16 +1395,19 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1370,25 +1416,25 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>6000</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4200</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1396,8 +1442,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,41 +1489,44 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-22700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>42200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>63200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>29400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>17000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>52800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>42000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>58600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>42400</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1484,41 +1536,44 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-23500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>41300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>62400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>29400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>17000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>52900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>42000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>58600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>43200</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1528,8 +1583,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1630,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1677,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1724,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,41 +1771,44 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E32" s="3">
         <v>3200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1748,41 +1818,44 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-23500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>41300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>62400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>29400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>17000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>52900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>42000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>58600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>43200</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +1865,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,41 +1912,44 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-23500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>41300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>62400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>29400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>17000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>52900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>42000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>58600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>43200</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,46 +1959,49 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1929,8 +2011,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2032,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,32 +2051,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>426500</v>
+      </c>
+      <c r="E41" s="3">
         <v>306500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>225600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>461000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>444000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>310200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>235600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,8 +2096,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2053,8 +2143,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2070,15 +2163,15 @@
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3">
         <v>26000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>30300</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2190,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2141,8 +2237,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2185,8 +2284,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2229,32 +2331,35 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7527300</v>
+      </c>
+      <c r="E47" s="3">
         <v>7402300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7318600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7052400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7135900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6656700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6614000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2273,8 +2378,11 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2317,8 +2425,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2361,8 +2472,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2519,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,32 +2566,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E52" s="3">
         <v>41700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>37100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>36700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>23100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>43500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>42600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,8 +2613,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,32 +2660,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8484400</v>
+      </c>
+      <c r="E54" s="3">
         <v>8241500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8057900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8016200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8072800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7455300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7352300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2707,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2728,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,8 +2747,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2634,15 +2765,15 @@
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3">
         <v>46200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>32700</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,32 +2792,35 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5365100</v>
+      </c>
+      <c r="E58" s="3">
         <v>5110800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4855100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4755000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4902400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4277300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3885500</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,32 +2839,35 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>121700</v>
+      </c>
+      <c r="E59" s="3">
         <v>121100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>114700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>107500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>133400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>70000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>76400</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2749,8 +2886,11 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2793,32 +2933,35 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>553500</v>
+      </c>
+      <c r="E61" s="3">
         <v>553200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>552900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>563300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>457700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>457600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>814300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2837,8 +2980,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2881,8 +3027,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3074,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3121,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,32 +3168,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6040300</v>
+      </c>
+      <c r="E66" s="3">
         <v>5785000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5522700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5464300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5531700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4888600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4983300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3215,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3236,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3281,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3328,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3184,11 +3352,11 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>100</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3207,8 +3375,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,32 +3422,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-273000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-257200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>799400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>757300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>694100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>664700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>597300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3469,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3516,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3563,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,32 +3610,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2444200</v>
+      </c>
+      <c r="E76" s="3">
         <v>2456500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2535200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2552000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2541200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2566600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2368800</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3657,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,46 +3704,49 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3564,41 +3756,44 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-23500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>41300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>62400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>29400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>17000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>52900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>42000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>58600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>43200</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3608,8 +3803,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,28 +3824,29 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E83" s="3">
         <v>2000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1900</v>
       </c>
       <c r="H83" s="3">
         <v>1900</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>1900</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3661,8 +3860,8 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3670,8 +3869,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +3916,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +3963,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4010,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4057,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,41 +4104,44 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E89" s="3">
         <v>20000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>18900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>49500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>22600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>69000</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
         <v>140500</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3934,8 +4151,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,37 +4172,38 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3996,8 +4217,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4264,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,41 +4311,44 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-97600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-122400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-278400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>84100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-456600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-70700</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
         <v>-208900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4128,8 +4358,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,13 +4379,14 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-52000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -4176,11 +4410,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-12400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -4190,8 +4424,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4471,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4518,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,41 +4565,44 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>196100</v>
+      </c>
+      <c r="E100" s="3">
         <v>187900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>24400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-103000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>567000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>76000</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3">
         <v>161300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4366,8 +4612,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4410,41 +4659,44 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>117900</v>
+      </c>
+      <c r="E102" s="3">
         <v>85500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-235100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>30600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>133000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>74300</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3">
         <v>93000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4452,6 +4704,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMTG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMTG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
   <si>
     <t>CMTG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -733,44 +734,47 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>200600</v>
+      </c>
+      <c r="E8" s="3">
         <v>175100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>176100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>144400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>146200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>97500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>113300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>112400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>110700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>106900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>105200</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -780,44 +784,47 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E9" s="3">
         <v>11200</v>
-      </c>
-      <c r="E9" s="3">
-        <v>9900</v>
       </c>
       <c r="F9" s="3">
         <v>9900</v>
       </c>
       <c r="G9" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="H9" s="3">
         <v>9800</v>
       </c>
       <c r="I9" s="3">
+        <v>9800</v>
+      </c>
+      <c r="J9" s="3">
         <v>10000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -827,44 +834,47 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>191000</v>
+      </c>
+      <c r="E10" s="3">
         <v>163900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>166200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>134500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>136400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>87700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>103300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>102600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>101000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>97300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>95200</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -874,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +906,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -940,8 +954,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,31 +1004,34 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-2200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1034,8 +1054,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1043,34 +1066,34 @@
         <v>2100</v>
       </c>
       <c r="E15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F15" s="3">
         <v>2000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1900</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3">
         <v>1300</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1081,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,44 +1123,45 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E17" s="3">
         <v>28300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>103800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>34000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>36300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>45100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>62300</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,44 +1171,47 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>129500</v>
+      </c>
+      <c r="E18" s="3">
         <v>146800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>72300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>110400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>109900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>71500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>68200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>97000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>42900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,8 +1221,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,44 +1243,45 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,32 +1291,35 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E21" s="3">
         <v>144400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>71200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>111200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>109900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>68900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>65000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,41 +1341,44 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>119700</v>
+      </c>
+      <c r="E22" s="3">
         <v>105600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>91800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>66800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>44700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>37600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>40000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>42800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>50900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>47800</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1351,44 +1391,47 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E23" s="3">
         <v>36700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-22700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>42200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>63200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>29400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>23000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>52800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>40100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>54400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>42400</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1398,8 +1441,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1409,8 +1455,8 @@
       <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1419,25 +1465,25 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>6000</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-1800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4200</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1445,8 +1491,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,44 +1541,47 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E26" s="3">
         <v>36700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-22700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>42200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>63200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>29400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>17000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>52800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>42000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>58600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>42400</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1539,44 +1591,47 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E27" s="3">
         <v>35500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>41300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>62400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>29400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>17000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>52900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>42000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>58600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>43200</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1586,8 +1641,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,44 +1841,47 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E32" s="3">
         <v>4500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1821,44 +1891,47 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E33" s="3">
         <v>35500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>41300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>62400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>29400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>17000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>52900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>42000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>58600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>43200</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1868,8 +1941,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,44 +1991,47 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E35" s="3">
         <v>35500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>41300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>62400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>29400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>17000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>52900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>42000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>58600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>43200</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1962,49 +2041,52 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2014,8 +2096,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,35 +2138,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>253100</v>
+      </c>
+      <c r="E41" s="3">
         <v>426500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>306500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>225600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>461000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>444000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>310200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>235600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2186,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2146,8 +2236,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2166,15 +2259,15 @@
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3">
         <v>26000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>30300</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,8 +2286,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2240,8 +2336,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2287,8 +2386,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2334,35 +2436,38 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7459600</v>
+      </c>
+      <c r="E47" s="3">
         <v>7527300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7402300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7318600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7052400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7135900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6656700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6614000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2381,8 +2486,11 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2428,8 +2536,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2475,8 +2586,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,35 +2686,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E52" s="3">
         <v>39600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>41700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>37100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>36700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>23100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>43500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>42600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2616,8 +2736,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,35 +2786,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8400600</v>
+      </c>
+      <c r="E54" s="3">
         <v>8484400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8241500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8057900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8016200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8072800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7455300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7352300</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2836,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,8 +2878,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2768,15 +2899,15 @@
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3">
         <v>46200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>32700</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,35 +2926,38 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5322500</v>
+      </c>
+      <c r="E58" s="3">
         <v>5365100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5110800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4855100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4755000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4902400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4277300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3885500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2842,35 +2976,38 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E59" s="3">
         <v>121700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>121100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>114700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>107500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>133400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>70000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>76400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,8 +3026,11 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2936,35 +3076,38 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>553700</v>
+      </c>
+      <c r="E61" s="3">
         <v>553500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>553200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>552900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>563300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>457700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>457600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>814300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2983,8 +3126,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3030,8 +3176,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,35 +3326,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6000200</v>
+      </c>
+      <c r="E66" s="3">
         <v>6040300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5785000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5522700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5464300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5531700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4888600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4983300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3376,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3355,11 +3523,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>100</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3378,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,35 +3596,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-321100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-273000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-257200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>799400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>757300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>694100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>664700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>597300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3646,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,35 +3796,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2400400</v>
+      </c>
+      <c r="E76" s="3">
         <v>2444200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2456500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2535200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2552000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2541200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2566600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2368800</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,49 +3896,52 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3759,44 +3951,47 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E81" s="3">
         <v>35500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>41300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>62400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>29400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>17000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>52900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>42000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>58600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>43200</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3806,8 +4001,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,8 +4023,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3834,22 +4033,22 @@
         <v>2100</v>
       </c>
       <c r="E83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F83" s="3">
         <v>2000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1900</v>
       </c>
       <c r="I83" s="3">
         <v>1900</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>1900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3863,8 +4062,8 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -3872,8 +4071,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,44 +4321,47 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E89" s="3">
         <v>19500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>20000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>18900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>49500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>22600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>69000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3">
         <v>140500</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4154,8 +4371,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,40 +4393,41 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9700</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4220,8 +4441,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,44 +4541,47 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-106500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-97600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-122400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-278400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>84100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-456600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-70700</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3">
         <v>-208900</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4361,8 +4591,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,17 +4613,18 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-52000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -4413,11 +4647,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-12400</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -4427,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,44 +4811,47 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-96900</v>
+      </c>
+      <c r="E100" s="3">
         <v>196100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>187900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>24400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-103000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>567000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>76000</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3">
         <v>161300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4615,8 +4861,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4662,44 +4911,47 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="E102" s="3">
         <v>117900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>85500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-235100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>30600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>133000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>74300</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3">
         <v>93000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4707,6 +4959,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CMTG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CMTG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
   <si>
     <t>CMTG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,70 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -737,47 +738,50 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>200600</v>
+        <v>204700</v>
       </c>
       <c r="E8" s="3">
+        <v>375700</v>
+      </c>
+      <c r="F8" s="3">
         <v>175100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>176100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>144400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>146200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>97500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>113300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>112400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>110700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>106900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>105200</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -787,47 +791,50 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>133200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>246600</v>
+      </c>
+      <c r="F9" s="3">
+        <v>117200</v>
+      </c>
+      <c r="G9" s="3">
+        <v>102400</v>
+      </c>
+      <c r="H9" s="3">
+        <v>77900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>56700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>49400</v>
+      </c>
+      <c r="K9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L9" s="3">
+        <v>9800</v>
+      </c>
+      <c r="M9" s="3">
+        <v>9700</v>
+      </c>
+      <c r="N9" s="3">
         <v>9600</v>
       </c>
-      <c r="E9" s="3">
-        <v>11200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>9900</v>
-      </c>
-      <c r="G9" s="3">
-        <v>9900</v>
-      </c>
-      <c r="H9" s="3">
-        <v>9800</v>
-      </c>
-      <c r="I9" s="3">
-        <v>9800</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="O9" s="3">
         <v>10000</v>
       </c>
-      <c r="K9" s="3">
-        <v>9800</v>
-      </c>
-      <c r="L9" s="3">
-        <v>9700</v>
-      </c>
-      <c r="M9" s="3">
-        <v>9600</v>
-      </c>
-      <c r="N9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,47 +844,50 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>191000</v>
+        <v>71500</v>
       </c>
       <c r="E10" s="3">
-        <v>163900</v>
+        <v>129100</v>
       </c>
       <c r="F10" s="3">
-        <v>166200</v>
+        <v>57900</v>
       </c>
       <c r="G10" s="3">
-        <v>134500</v>
+        <v>73700</v>
       </c>
       <c r="H10" s="3">
-        <v>136400</v>
+        <v>66500</v>
       </c>
       <c r="I10" s="3">
-        <v>87700</v>
+        <v>89500</v>
       </c>
       <c r="J10" s="3">
+        <v>48100</v>
+      </c>
+      <c r="K10" s="3">
         <v>103300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>102600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>101000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>97300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>95200</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -887,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,8 +920,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -957,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,17 +1024,20 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1033,8 +1053,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1057,46 +1077,49 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F15" s="3">
         <v>2100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H15" s="3">
         <v>2100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="I15" s="3">
         <v>2000</v>
       </c>
-      <c r="G15" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1900</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3">
         <v>1300</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,47 +1150,48 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>71100</v>
+        <v>267500</v>
       </c>
       <c r="E17" s="3">
-        <v>28300</v>
+        <v>325200</v>
       </c>
       <c r="F17" s="3">
-        <v>103800</v>
+        <v>134300</v>
       </c>
       <c r="G17" s="3">
-        <v>34000</v>
+        <v>196300</v>
       </c>
       <c r="H17" s="3">
-        <v>36300</v>
+        <v>102000</v>
       </c>
       <c r="I17" s="3">
-        <v>26000</v>
+        <v>83100</v>
       </c>
       <c r="J17" s="3">
+        <v>65600</v>
+      </c>
+      <c r="K17" s="3">
         <v>45100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>62300</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1174,47 +1201,50 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>129500</v>
+        <v>-62800</v>
       </c>
       <c r="E18" s="3">
-        <v>146800</v>
+        <v>50500</v>
       </c>
       <c r="F18" s="3">
-        <v>72300</v>
+        <v>40800</v>
       </c>
       <c r="G18" s="3">
-        <v>110400</v>
+        <v>-20200</v>
       </c>
       <c r="H18" s="3">
-        <v>109900</v>
+        <v>42400</v>
       </c>
       <c r="I18" s="3">
-        <v>71500</v>
+        <v>63100</v>
       </c>
       <c r="J18" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K18" s="3">
         <v>68200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>97000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>100800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>42900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1254,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,47 +1277,48 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5500</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>-4500</v>
+        <v>1700</v>
       </c>
       <c r="F20" s="3">
-        <v>-3200</v>
+        <v>1400</v>
       </c>
       <c r="G20" s="3">
-        <v>-1300</v>
+        <v>2500</v>
       </c>
       <c r="H20" s="3">
-        <v>-2000</v>
+        <v>3700</v>
       </c>
       <c r="I20" s="3">
-        <v>-4600</v>
+        <v>2800</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1294,35 +1328,38 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>126000</v>
+        <v>-60300</v>
       </c>
       <c r="E21" s="3">
-        <v>144400</v>
+        <v>56400</v>
       </c>
       <c r="F21" s="3">
-        <v>71200</v>
+        <v>44200</v>
       </c>
       <c r="G21" s="3">
-        <v>111200</v>
+        <v>-15700</v>
       </c>
       <c r="H21" s="3">
-        <v>109900</v>
+        <v>48200</v>
       </c>
       <c r="I21" s="3">
-        <v>68900</v>
+        <v>67900</v>
       </c>
       <c r="J21" s="3">
+        <v>33900</v>
+      </c>
+      <c r="K21" s="3">
         <v>65000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1344,44 +1381,47 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>119700</v>
+        <v>6100</v>
       </c>
       <c r="E22" s="3">
-        <v>105600</v>
+        <v>11300</v>
       </c>
       <c r="F22" s="3">
-        <v>91800</v>
+        <v>5400</v>
       </c>
       <c r="G22" s="3">
-        <v>66800</v>
+        <v>5000</v>
       </c>
       <c r="H22" s="3">
-        <v>44700</v>
+        <v>3900</v>
       </c>
       <c r="I22" s="3">
-        <v>37600</v>
+        <v>2700</v>
       </c>
       <c r="J22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K22" s="3">
         <v>40000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>42800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>50900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>47800</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1394,47 +1434,50 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4300</v>
+        <v>-68900</v>
       </c>
       <c r="E23" s="3">
+        <v>40900</v>
+      </c>
+      <c r="F23" s="3">
         <v>36700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-22700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>42200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>63200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>29400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>23000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>52800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>40100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>54400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>42400</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1444,8 +1487,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1458,8 +1504,8 @@
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1468,25 +1514,25 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>6000</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-1800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4200</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1494,8 +1540,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,47 +1593,50 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4300</v>
+        <v>-68900</v>
       </c>
       <c r="E26" s="3">
+        <v>40900</v>
+      </c>
+      <c r="F26" s="3">
         <v>36700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-22700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>42200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>63200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>29400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>17000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>52800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>42000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>58600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>42400</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1594,47 +1646,50 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3000</v>
+        <v>-69600</v>
       </c>
       <c r="E27" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F27" s="3">
         <v>35500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-23500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>41300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>62400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>29400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>17000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>52900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>42000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>58600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>43200</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1644,8 +1699,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,47 +1911,50 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>4500</v>
+        <v>-1700</v>
       </c>
       <c r="F32" s="3">
-        <v>3200</v>
+        <v>-1400</v>
       </c>
       <c r="G32" s="3">
-        <v>1300</v>
+        <v>-2500</v>
       </c>
       <c r="H32" s="3">
-        <v>2000</v>
+        <v>-3700</v>
       </c>
       <c r="I32" s="3">
-        <v>4600</v>
+        <v>-2800</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>5200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1894,47 +1964,50 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3000</v>
+        <v>-69600</v>
       </c>
       <c r="E33" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F33" s="3">
         <v>35500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-23500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>41300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>62400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>29400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>17000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>52900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>42000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>58600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>43200</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1944,8 +2017,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,47 +2070,50 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3000</v>
+        <v>-69600</v>
       </c>
       <c r="E35" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F35" s="3">
         <v>35500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-23500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>41300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>62400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>29400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>17000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>52900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>42000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>58600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>43200</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2044,52 +2123,55 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2181,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,38 +2225,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>307400</v>
+      </c>
+      <c r="E41" s="3">
         <v>253100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>426500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>306500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>225600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>461000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>444000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>310200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>235600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,8 +2276,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2239,8 +2329,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2262,15 +2355,15 @@
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="3">
         <v>26000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>30300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,8 +2382,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,8 +2435,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2389,8 +2488,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2439,38 +2541,41 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7056700</v>
+      </c>
+      <c r="E47" s="3">
         <v>7459600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7527300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7402300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7318600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>7052400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7135900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6656700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6614000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2489,8 +2594,11 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2539,8 +2647,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,38 +2806,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E52" s="3">
         <v>32000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>39600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>41700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>37100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>36700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>23100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>43500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>42600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,38 +2912,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8048400</v>
+      </c>
+      <c r="E54" s="3">
         <v>8400600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8484400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8241500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8057900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8016200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8072800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7455300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7352300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,8 +3009,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2902,15 +3033,15 @@
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="3">
         <v>46200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>32700</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,38 +3060,41 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5104900</v>
+      </c>
+      <c r="E58" s="3">
         <v>5322500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5365100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5110800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4855100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4755000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4902400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4277300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3885500</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2979,38 +3113,41 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>102900</v>
+      </c>
+      <c r="E59" s="3">
         <v>124000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>121700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>121100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>114700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>107500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>133400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>70000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>76400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,8 +3166,11 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3079,38 +3219,41 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>544000</v>
+      </c>
+      <c r="E61" s="3">
         <v>553700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>553500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>553200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>552900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>563300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>457700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>457600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>814300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3129,8 +3272,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,38 +3484,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5751800</v>
+      </c>
+      <c r="E66" s="3">
         <v>6000200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6040300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5785000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5522700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5464300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5531700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4888600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4983300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3526,11 +3694,11 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>100</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,38 +3770,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-425400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-321100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-273000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-257200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>799400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>757300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>694100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>664700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>597300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,38 +3982,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2296700</v>
+      </c>
+      <c r="E76" s="3">
         <v>2400400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2444200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2456500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2535200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2552000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2541200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2566600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2368800</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,52 +4088,55 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3954,47 +4146,50 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3000</v>
+        <v>-69600</v>
       </c>
       <c r="E81" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F81" s="3">
         <v>35500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-23500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>41300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>62400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>29400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>17000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>52900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>42000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>58600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>43200</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4199,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,34 +4222,35 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F83" s="3">
         <v>2100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H83" s="3">
         <v>2100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="I83" s="3">
         <v>2000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1900</v>
       </c>
       <c r="J83" s="3">
         <v>1900</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>1900</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -4065,8 +4264,8 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4074,8 +4273,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,47 +4538,50 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>22400</v>
+        <v>41900</v>
       </c>
       <c r="E89" s="3">
+        <v>41900</v>
+      </c>
+      <c r="F89" s="3">
         <v>19500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>20000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>18900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>49500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>22600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>69000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3">
         <v>140500</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4374,8 +4591,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,8 +4614,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4403,34 +4624,34 @@
         <v>-400</v>
       </c>
       <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9700</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4444,8 +4665,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,47 +4771,50 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-106500</v>
+        <v>296600</v>
       </c>
       <c r="E94" s="3">
+        <v>-204100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-97600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-122400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-278400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>84100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-456600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-70700</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3">
         <v>-208900</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4824,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4623,11 +4857,11 @@
         <v>-52400</v>
       </c>
       <c r="E96" s="3">
+        <v>-104400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-52000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -4650,11 +4884,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-12400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,47 +5057,50 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-96900</v>
+        <v>-293000</v>
       </c>
       <c r="E100" s="3">
+        <v>99100</v>
+      </c>
+      <c r="F100" s="3">
         <v>196100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>187900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>24400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-103000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>567000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>76000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3">
         <v>161300</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4864,8 +5110,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,47 +5163,50 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-181000</v>
+        <v>45500</v>
       </c>
       <c r="E102" s="3">
+        <v>-63100</v>
+      </c>
+      <c r="F102" s="3">
         <v>117900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>85500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-235100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>30600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>133000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>74300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3">
         <v>93000</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4962,6 +5214,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
